--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15858.07481273195</v>
+        <v>3155756.887733658</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15858.07481273195</v>
+        <v>3155756.887733658</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48154.88075855328</v>
+        <v>2915500.954814739</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48154.88075855328</v>
+        <v>2915500.954814739</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114345231.055701</v>
+        <v>45295395.88779266</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12314.11199596699</v>
+        <v>1277087.651709853</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22159.29366719152</v>
+        <v>2136502.016811103</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32016.08911625965</v>
+        <v>2995916.381912354</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42433.12658320214</v>
+        <v>3854026.707099156</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52850.57023696873</v>
+        <v>4712217.863463962</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63268.01389073532</v>
+        <v>5570409.019828761</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73685.45754450191</v>
+        <v>6428600.17619356</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84102.90119826858</v>
+        <v>7286791.332558357</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94566.17930717928</v>
+        <v>8128376.765011631</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105017.2035138815</v>
+        <v>8990834.266136913</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115442.7488794816</v>
+        <v>9848221.47788287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125868.2942450818</v>
+        <v>10705608.68962883</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136293.8396106819</v>
+        <v>11562995.90137479</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146719.384976282</v>
+        <v>12420383.11312076</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157184.6320731271</v>
+        <v>13262360.374173</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>207</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1111</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
